--- a/RadiustoPunch.xlsx
+++ b/RadiustoPunch.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/883e12add44213a1/Desktop/Binoy/arch/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="11_72EC83F1CF752050F67C28E7204EBC4EF4E492D3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A7030D4-9DE0-4B84-B017-935D56EA2A1B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -36,8 +30,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,12 +60,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -346,21 +343,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E171"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="A172" sqref="A172"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
@@ -369,1377 +366,1389 @@
     <col min="5" max="5" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:2">
+      <c r="A2" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="3">
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2">
+      <c r="A4" s="2">
         <v>2.9</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:2">
+      <c r="A7" s="2">
         <v>3.2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="3">
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:2">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="3">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2">
+      <c r="A9" s="2">
         <v>4.46</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="3">
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:2">
+      <c r="A10" s="2">
         <v>5.34</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="3">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:2">
+      <c r="A11" s="2">
         <v>5.43</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="3">
         <v>195</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:2">
+      <c r="A12" s="2">
         <v>5.6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="3">
         <v>185</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:2">
+      <c r="A13" s="2">
         <v>5.6</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="3">
         <v>181</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:2">
+      <c r="A14" s="2">
         <v>5.63</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="3">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:2">
+      <c r="A15" s="2">
         <v>5.7</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:2">
+      <c r="A16" s="2">
         <v>5.7</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="3">
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:2">
+      <c r="A17" s="2">
         <v>5.74</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="3">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:2">
+      <c r="A18" s="2">
         <v>5.88</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="3">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:2">
+      <c r="A19" s="2">
         <v>6.1</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="3">
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:2">
+      <c r="A20" s="2">
         <v>6.13</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="3">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:2">
+      <c r="A21" s="2">
         <v>6.5</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:2">
+      <c r="A22" s="2">
         <v>6.6</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:2">
+      <c r="A23" s="2">
         <v>6.62</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="3">
         <v>188</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:2">
+      <c r="A24" s="2">
         <v>6.8</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="3">
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:2">
+      <c r="A25" s="2">
         <v>6.82</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="3">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:2">
+      <c r="A26" s="2">
         <v>6.97</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="3">
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:2">
+      <c r="A27" s="2">
         <v>7</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="3">
         <v>230</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:2">
+      <c r="A28" s="2">
         <v>7.2</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="3">
         <v>838</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:2">
+      <c r="A29" s="2">
         <v>7.5359999999999996</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="3">
         <v>217</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:2">
+      <c r="A30" s="2">
         <v>7.5359999999999996</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="3">
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:2">
+      <c r="A31" s="2">
         <v>7.6</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:2">
+      <c r="A32" s="2">
         <v>7.8</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
         <v>7.8</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="3">
         <v>714</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
         <v>7.95</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="3">
         <v>228</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
         <v>8</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="3">
         <v>308</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
         <v>8.07</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="3">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
         <v>8.125</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="3">
         <v>246</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="3">
         <v>250</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
         <v>8.3800000000000008</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="3">
         <v>221</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
         <v>8.5</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="3">
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
         <v>8.5299999999999994</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="3">
         <v>239</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="3">
         <v>264</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="3">
         <v>268</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
         <v>8.82</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="3">
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
         <v>9.36</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
         <v>9.61</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="3">
         <v>290</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
         <v>9.61</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="3">
         <v>284</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
         <v>9.66</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="3">
         <v>288</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
         <v>9.73</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="3">
         <v>332</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
         <v>9.75</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="3">
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
         <v>9.75</v>
       </c>
-      <c r="B53" s="2">
+      <c r="B53" s="3">
         <v>261</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
         <v>9.75</v>
       </c>
-      <c r="B54" s="2">
+      <c r="B54" s="3">
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
         <v>10.37</v>
       </c>
-      <c r="B55" s="2">
+      <c r="B55" s="3">
         <v>328</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
         <v>10.48</v>
       </c>
-      <c r="B56" s="2">
+      <c r="B56" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
         <v>10.48</v>
       </c>
-      <c r="B57" s="2">
+      <c r="B57" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
         <v>10.5</v>
       </c>
-      <c r="B58" s="2">
+      <c r="B58" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
         <v>10.5</v>
       </c>
-      <c r="B59" s="2">
+      <c r="B59" s="3">
         <v>323</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
         <v>10.5</v>
       </c>
-      <c r="B60" s="2">
+      <c r="B60" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
         <v>10.5</v>
       </c>
-      <c r="B61" s="2">
+      <c r="B61" s="3">
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
         <v>10.75</v>
       </c>
-      <c r="B62" s="2">
+      <c r="B62" s="3">
         <v>321</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
         <v>10.75</v>
       </c>
-      <c r="B63" s="2">
+      <c r="B63" s="3">
         <v>315</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
         <v>11</v>
       </c>
-      <c r="B64" s="2">
+      <c r="B64" s="3">
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:2">
+      <c r="A65" s="2">
         <v>11.03</v>
       </c>
-      <c r="B65" s="2">
+      <c r="B65" s="3">
         <v>373</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:2">
+      <c r="A66" s="2">
         <v>11.05</v>
       </c>
-      <c r="B66" s="2">
+      <c r="B66" s="3">
         <v>363</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:2">
+      <c r="A67" s="2">
         <v>11.4</v>
       </c>
-      <c r="B67" s="2">
+      <c r="B67" s="3">
         <v>357</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:2">
+      <c r="A68" s="2">
         <v>11.46</v>
       </c>
-      <c r="B68" s="2">
+      <c r="B68" s="3">
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:2">
+      <c r="A69" s="2">
         <v>11.76</v>
       </c>
-      <c r="B69" s="2">
+      <c r="B69" s="3">
         <v>358</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:2">
+      <c r="A70" s="2">
         <v>11.88</v>
       </c>
-      <c r="B70" s="2">
+      <c r="B70" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:2">
+      <c r="A71" s="2">
         <v>11.94</v>
       </c>
-      <c r="B71" s="2">
+      <c r="B71" s="3">
         <v>339</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:2">
+      <c r="A72" s="2">
         <v>11.94</v>
       </c>
-      <c r="B72" s="2">
+      <c r="B72" s="3">
         <v>342</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:2">
+      <c r="A73" s="2">
         <v>12.11</v>
       </c>
-      <c r="B73" s="2">
+      <c r="B73" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:2">
+      <c r="A74" s="2">
         <v>12.25</v>
       </c>
-      <c r="B74" s="2">
+      <c r="B74" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:2">
+      <c r="A75" s="2">
         <v>12.33</v>
       </c>
-      <c r="B75" s="2">
+      <c r="B75" s="3">
         <v>338.6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:2">
+      <c r="A76" s="2">
         <v>12.39</v>
       </c>
-      <c r="B76" s="2">
+      <c r="B76" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:2">
+      <c r="A77" s="2">
         <v>12.76</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B77" s="3">
         <v>313</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:2">
+      <c r="A78" s="2">
         <v>13</v>
       </c>
-      <c r="B78" s="2">
+      <c r="B78" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:2">
+      <c r="A79" s="2">
         <v>13.3</v>
       </c>
-      <c r="B79" s="2">
+      <c r="B79" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80" spans="1:2">
+      <c r="A80" s="2">
         <v>13.36</v>
       </c>
-      <c r="B80" s="2">
+      <c r="B80" s="3">
         <v>342</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:2">
+      <c r="A81" s="2">
         <v>13.6</v>
       </c>
-      <c r="B81" s="2">
+      <c r="B81" s="3">
         <v>365</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82" spans="1:2">
+      <c r="A82" s="2">
         <v>13.64</v>
       </c>
-      <c r="B82" s="2">
+      <c r="B82" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83" spans="1:2">
+      <c r="A83" s="2">
         <v>13.64</v>
       </c>
-      <c r="B83" s="2">
+      <c r="B83" s="3">
         <v>338</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84" spans="1:2">
+      <c r="A84" s="2">
         <v>13.64</v>
       </c>
-      <c r="B84" s="2">
+      <c r="B84" s="3">
         <v>304</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85" spans="1:2">
+      <c r="A85" s="2">
         <v>13.74</v>
       </c>
-      <c r="B85" s="2">
+      <c r="B85" s="3">
         <v>353</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86" spans="1:2">
+      <c r="A86" s="2">
         <v>13.8</v>
       </c>
-      <c r="B86" s="2">
+      <c r="B86" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87" spans="1:2">
+      <c r="A87" s="2">
         <v>13.82</v>
       </c>
-      <c r="B87" s="2">
+      <c r="B87" s="3">
         <v>338</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88" spans="1:2">
+      <c r="A88" s="2">
         <v>13.9</v>
       </c>
-      <c r="B88" s="2">
+      <c r="B88" s="3">
         <v>332</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="89" spans="1:2">
+      <c r="A89" s="2">
         <v>13.94</v>
       </c>
-      <c r="B89" s="2">
+      <c r="B89" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90" spans="1:2">
+      <c r="A90" s="2">
         <v>14</v>
       </c>
-      <c r="B90" s="2">
+      <c r="B90" s="3">
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="91" spans="1:2">
+      <c r="A91" s="2">
         <v>14</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="3">
         <v>341</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="92" spans="1:2">
+      <c r="A92" s="2">
         <v>14</v>
       </c>
-      <c r="B92" s="2">
+      <c r="B92" s="3">
         <v>322</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="93" spans="1:2">
+      <c r="A93" s="2">
         <v>14.1</v>
       </c>
-      <c r="B93" s="2">
+      <c r="B93" s="3">
         <v>361</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="94" spans="1:2">
+      <c r="A94" s="2">
         <v>14.12</v>
       </c>
-      <c r="B94" s="2">
+      <c r="B94" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95" spans="1:2">
+      <c r="A95" s="2">
         <v>14.12</v>
       </c>
-      <c r="B95" s="2">
+      <c r="B95" s="3">
         <v>365</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="96" spans="1:2">
+      <c r="A96" s="2">
         <v>14.2</v>
       </c>
-      <c r="B96" s="2">
+      <c r="B96" s="3">
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="97" spans="1:2">
+      <c r="A97" s="2">
         <v>14.83</v>
       </c>
-      <c r="B97" s="2">
+      <c r="B97" s="3">
         <v>316</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98" spans="1:2">
+      <c r="A98" s="2">
         <v>15</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="3">
         <v>375</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99" spans="1:2">
+      <c r="A99" s="2">
         <v>15.33</v>
       </c>
-      <c r="B99" s="2">
+      <c r="B99" s="3">
         <v>342</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100" spans="1:2">
+      <c r="A100" s="2">
         <v>15.33</v>
       </c>
-      <c r="B100" s="2">
+      <c r="B100" s="3">
         <v>317</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="101" spans="1:2">
+      <c r="A101" s="2">
         <v>15.49</v>
       </c>
-      <c r="B101" s="2">
+      <c r="B101" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="102" spans="1:2">
+      <c r="A102" s="2">
         <v>15.58</v>
       </c>
-      <c r="B102" s="2">
+      <c r="B102" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="103" spans="1:2">
+      <c r="A103" s="2">
         <v>15.76</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B103" s="3">
         <v>406</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104" spans="1:2">
+      <c r="A104" s="2">
         <v>15.9</v>
       </c>
-      <c r="B104" s="2">
+      <c r="B104" s="3">
         <v>387</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="105" spans="1:2">
+      <c r="A105" s="2">
         <v>15.9</v>
       </c>
-      <c r="B105" s="2">
+      <c r="B105" s="3">
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106" spans="1:2">
+      <c r="A106" s="2">
         <v>15.9</v>
       </c>
-      <c r="B106" s="2">
+      <c r="B106" s="3">
         <v>323</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="107" spans="1:2">
+      <c r="A107" s="2">
         <v>16.12</v>
       </c>
-      <c r="B107" s="2">
+      <c r="B107" s="3">
         <v>372</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108" spans="1:2">
+      <c r="A108" s="2">
         <v>16.12</v>
       </c>
-      <c r="B108" s="2">
+      <c r="B108" s="3">
         <v>358</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109" spans="1:2">
+      <c r="A109" s="2">
         <v>16.25</v>
       </c>
-      <c r="B109" s="2">
+      <c r="B109" s="3">
         <v>397</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="110" spans="1:2">
+      <c r="A110" s="2">
         <v>16.3</v>
       </c>
-      <c r="B110" s="2">
+      <c r="B110" s="3">
         <v>387</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="111" spans="1:2">
+      <c r="A111" s="2">
         <v>16.3</v>
       </c>
-      <c r="B111" s="2">
+      <c r="B111" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="112" spans="1:2">
+      <c r="A112" s="2">
         <v>16.41</v>
       </c>
-      <c r="B112" s="2">
+      <c r="B112" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="113" spans="1:2">
+      <c r="A113" s="2">
         <v>16.5</v>
       </c>
-      <c r="B113" s="2">
+      <c r="B113" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="114" spans="1:2">
+      <c r="A114" s="2">
         <v>16.670000000000002</v>
       </c>
-      <c r="B114" s="2">
+      <c r="B114" s="3">
         <v>393</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="115" spans="1:2">
+      <c r="A115" s="2">
         <v>16.670000000000002</v>
       </c>
-      <c r="B115" s="2">
+      <c r="B115" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="116" spans="1:2">
+      <c r="A116" s="2">
         <v>17.5</v>
       </c>
-      <c r="B116" s="2">
+      <c r="B116" s="3">
         <v>455</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="117" spans="1:2">
+      <c r="A117" s="2">
         <v>17.5</v>
       </c>
-      <c r="B117" s="2">
+      <c r="B117" s="3">
         <v>455</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="118" spans="1:2">
+      <c r="A118" s="2">
         <v>17.61</v>
       </c>
-      <c r="B118" s="2">
+      <c r="B118" s="3">
         <v>395</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="119" spans="1:2">
+      <c r="A119" s="2">
         <v>17.812000000000001</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B119" s="3">
         <v>457</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="120" spans="1:2">
+      <c r="A120" s="2">
         <v>17.812000000000001</v>
       </c>
-      <c r="B120" s="2">
+      <c r="B120" s="3">
         <v>474</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="121" spans="1:2">
+      <c r="A121" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="3">
         <v>458</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="122" spans="1:2">
+      <c r="A122" s="2">
         <v>18.71</v>
       </c>
-      <c r="B122" s="2">
+      <c r="B122" s="3">
         <v>445</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="123" spans="1:2">
+      <c r="A123" s="2">
         <v>18.71</v>
       </c>
-      <c r="B123" s="2">
+      <c r="B123" s="3">
         <v>445</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="124" spans="1:2">
+      <c r="A124" s="2">
         <v>18.920000000000002</v>
       </c>
-      <c r="B124" s="2">
+      <c r="B124" s="3">
         <v>438</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="125" spans="1:2">
+      <c r="A125" s="2">
         <v>20.14</v>
       </c>
-      <c r="B125" s="2">
+      <c r="B125" s="3">
         <v>457</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row r="126" spans="1:2">
+      <c r="A126" s="2">
         <v>20.14</v>
       </c>
-      <c r="B126" s="2">
+      <c r="B126" s="3">
         <v>406</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+    <row r="127" spans="1:2">
+      <c r="A127" s="2">
         <v>20.5</v>
       </c>
-      <c r="B127" s="2">
+      <c r="B127" s="3">
         <v>411</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="128" spans="1:2">
+      <c r="A128" s="2">
         <v>20.51</v>
       </c>
-      <c r="B128" s="2">
+      <c r="B128" s="3">
         <v>409</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
         <v>20.54</v>
       </c>
-      <c r="B129" s="2">
+      <c r="B129" s="3">
         <v>360</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
         <v>20.58</v>
       </c>
-      <c r="B130" s="2">
+      <c r="B130" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
         <v>20.84</v>
       </c>
-      <c r="B131" s="2">
+      <c r="B131" s="3">
         <v>393</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row r="132" spans="1:2">
+      <c r="A132" s="2">
         <v>21.38</v>
       </c>
-      <c r="B132" s="2">
+      <c r="B132" s="3">
         <v>406</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row r="133" spans="1:2">
+      <c r="A133" s="2">
         <v>21.42</v>
       </c>
-      <c r="B133" s="2">
+      <c r="B133" s="3">
         <v>412</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+    <row r="134" spans="1:2">
+      <c r="A134" s="2">
         <v>21.67</v>
       </c>
-      <c r="B134" s="2">
+      <c r="B134" s="3">
         <v>397</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+    <row r="135" spans="1:2">
+      <c r="A135" s="2">
         <v>21.86</v>
       </c>
-      <c r="B135" s="2">
+      <c r="B135" s="3">
         <v>411.5</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+    <row r="136" spans="1:2">
+      <c r="A136" s="2">
         <v>22</v>
       </c>
-      <c r="B136" s="2">
+      <c r="B136" s="3">
         <v>330</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+    <row r="137" spans="1:2">
+      <c r="A137" s="2">
         <v>22</v>
       </c>
-      <c r="B137" s="2">
+      <c r="B137" s="3">
         <v>336</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+    <row r="138" spans="1:2">
+      <c r="A138" s="2">
         <v>22.33</v>
       </c>
-      <c r="B138" s="2">
+      <c r="B138" s="3">
         <v>327</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+    <row r="139" spans="1:2">
+      <c r="A139" s="2">
         <v>22.33</v>
       </c>
-      <c r="B139" s="2">
+      <c r="B139" s="3">
         <v>335</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+    <row r="140" spans="1:2">
+      <c r="A140" s="2">
         <v>22.33</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B140" s="3">
         <v>348</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+    <row r="141" spans="1:2">
+      <c r="A141" s="2">
         <v>22.33</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B141" s="3">
         <v>323</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row r="142" spans="1:2">
+      <c r="A142" s="2">
         <v>23.12</v>
       </c>
-      <c r="B142" s="2">
+      <c r="B142" s="3">
         <v>412</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row r="143" spans="1:2">
+      <c r="A143" s="2">
         <v>23.7</v>
       </c>
-      <c r="B143" s="2">
+      <c r="B143" s="3">
         <v>387.25</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+    <row r="144" spans="1:2">
+      <c r="A144" s="2">
         <v>24</v>
       </c>
-      <c r="B144" s="2">
+      <c r="B144" s="3">
         <v>388</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+    <row r="145" spans="1:2">
+      <c r="A145" s="2">
         <v>24</v>
       </c>
-      <c r="B145" s="2">
+      <c r="B145" s="3">
         <v>388</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="146" spans="1:2">
+      <c r="A146" s="2">
         <v>24.8</v>
       </c>
-      <c r="B146" s="2">
+      <c r="B146" s="3">
         <v>355</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+    <row r="147" spans="1:2">
+      <c r="A147" s="2">
         <v>24.9</v>
       </c>
-      <c r="B147" s="2">
+      <c r="B147" s="3">
         <v>433</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row r="148" spans="1:2">
+      <c r="A148" s="2">
         <v>24.9</v>
       </c>
-      <c r="B148" s="2">
+      <c r="B148" s="3">
         <v>456</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row r="149" spans="1:2">
+      <c r="A149" s="2">
         <v>24.9</v>
       </c>
-      <c r="B149" s="2">
+      <c r="B149" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row r="150" spans="1:2">
+      <c r="A150" s="2">
         <v>24.9</v>
       </c>
-      <c r="B150" s="2">
+      <c r="B150" s="3">
         <v>425</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row r="151" spans="1:2">
+      <c r="A151" s="2">
         <v>24.9</v>
       </c>
-      <c r="B151" s="2">
+      <c r="B151" s="3">
         <v>425</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="152" spans="1:2">
+      <c r="A152" s="2">
         <v>24.9</v>
       </c>
-      <c r="B152" s="2">
+      <c r="B152" s="3">
         <v>448</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="153" spans="1:2">
+      <c r="A153" s="2">
         <v>26</v>
       </c>
-      <c r="B153" s="2">
+      <c r="B153" s="3">
         <v>466</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row r="154" spans="1:2">
+      <c r="A154" s="2">
         <v>26</v>
       </c>
-      <c r="B154" s="2">
+      <c r="B154" s="3">
         <v>462</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row r="155" spans="1:2">
+      <c r="A155" s="2">
         <v>27.77</v>
       </c>
-      <c r="B155" s="2">
+      <c r="B155" s="3">
         <v>457</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+    <row r="156" spans="1:2">
+      <c r="A156" s="2">
         <v>28</v>
       </c>
-      <c r="B156" s="2">
+      <c r="B156" s="3">
         <v>381</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+    <row r="157" spans="1:2">
+      <c r="A157" s="2">
         <v>28</v>
       </c>
-      <c r="B157" s="2">
+      <c r="B157" s="3">
         <v>419</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+    <row r="158" spans="1:2">
+      <c r="A158" s="2">
         <v>30</v>
       </c>
-      <c r="B158" s="2">
+      <c r="B158" s="3">
         <v>446</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+    <row r="159" spans="1:2">
+      <c r="A159" s="2">
         <v>31.2</v>
       </c>
-      <c r="B159" s="2">
+      <c r="B159" s="3">
         <v>527</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+    <row r="160" spans="1:2">
+      <c r="A160" s="2">
         <v>31.5</v>
       </c>
-      <c r="B160" s="2">
+      <c r="B160" s="3">
         <v>545</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+    <row r="161" spans="1:2">
+      <c r="A161" s="2">
         <v>31.5</v>
       </c>
-      <c r="B161" s="2">
+      <c r="B161" s="3">
         <v>562</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+    <row r="162" spans="1:2">
+      <c r="A162" s="2">
         <v>31.5</v>
       </c>
-      <c r="B162" s="2">
+      <c r="B162" s="3">
         <v>595</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+    <row r="163" spans="1:2">
+      <c r="A163" s="2">
+        <v>31.83</v>
+      </c>
+      <c r="B163" s="3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="2">
+        <v>32.18</v>
+      </c>
+      <c r="B164" s="3">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="2">
         <v>33</v>
       </c>
-      <c r="B163" s="2">
+      <c r="B165" s="3">
         <v>487</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="166" spans="1:2">
+      <c r="A166" s="2">
         <v>33</v>
       </c>
-      <c r="B164" s="2">
+      <c r="B166" s="3">
         <v>533</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+    <row r="167" spans="1:2">
+      <c r="A167" s="2">
         <v>37</v>
       </c>
-      <c r="B165" s="2">
+      <c r="B167" s="3">
         <v>643</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+    <row r="168" spans="1:2">
+      <c r="A168" s="2">
         <v>37.83</v>
       </c>
-      <c r="B166" s="2">
+      <c r="B168" s="3">
         <v>635</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+    <row r="169" spans="1:2">
+      <c r="A169" s="2">
         <v>37.83</v>
       </c>
-      <c r="B167" s="2">
+      <c r="B169" s="3">
         <v>609</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+    <row r="170" spans="1:2">
+      <c r="A170" s="2">
         <v>37.83</v>
       </c>
-      <c r="B168" s="2">
+      <c r="B170" s="3">
         <v>590</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
-        <v>49</v>
-      </c>
-      <c r="B169" s="1">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
-        <v>54</v>
-      </c>
-      <c r="B170" s="1">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
-        <v>43</v>
-      </c>
-      <c r="B171" s="1">
-        <v>688</v>
-      </c>
+    <row r="171" spans="1:2">
+      <c r="A171" s="2">
+        <v>53.94</v>
+      </c>
+      <c r="B171" s="3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="2">
+        <v>53.94</v>
+      </c>
+      <c r="B172" s="3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="2"/>
+      <c r="B173" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B168">
-    <sortCondition ref="A2:A168"/>
+  <sortState ref="A2:B172">
+    <sortCondition ref="A2:A172"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
